--- a/Document/进度/王玉国.xlsx
+++ b/Document/进度/王玉国.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 表单上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
   </si>
@@ -169,6 +169,29 @@
     <t>购物车</t>
   </si>
   <si>
+    <r>
+      <t>搜索页面，商品详情页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品列表页面</t>
+    </r>
+  </si>
+  <si>
     <t>任务</t>
   </si>
   <si>
@@ -191,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="mm&quot;月&quot;dd&quot;日&quot;"/>
   </numFmts>
   <fonts count="9">
@@ -1389,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1484,7 +1507,9 @@
       <c r="D5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="19"/>
@@ -1705,7 +1730,7 @@
     </row>
     <row r="3" ht="18.25" customHeight="1" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
@@ -2016,7 +2041,7 @@
     </row>
     <row r="3" ht="18.25" customHeight="1" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
@@ -2066,7 +2091,7 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -2517,7 +2542,7 @@
     </row>
     <row r="3" ht="18.25" customHeight="1" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>18</v>
@@ -2577,7 +2602,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="30"/>
       <c r="N4" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="32"/>
     </row>
@@ -3188,11 +3213,11 @@
     <row r="5" ht="114.3" customHeight="1" spans="1:16">
       <c r="A5" s="7"/>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
